--- a/docss/trend/slovakia/E_huntington.xlsx
+++ b/docss/trend/slovakia/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\slovakia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>1999</v>
       </c>
       <c r="B2" s="7">
-        <v>4.0569469332695007E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C2" s="7">
         <v>0</v>
       </c>
       <c r="D2" s="7">
-        <v>7.765999436378479E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,10 +1597,10 @@
         <v>2000</v>
       </c>
       <c r="B3" s="7">
-        <v>2.3611079901456833E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C3" s="7">
-        <v>5.1416967064142227E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -1611,13 +1611,13 @@
         <v>2001</v>
       </c>
       <c r="B4" s="7">
-        <v>7.4199139140546322E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C4" s="7">
-        <v>3.8022816181182861E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D4" s="7">
-        <v>9.8551817238330841E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1625,13 @@
         <v>2002</v>
       </c>
       <c r="B5" s="7">
-        <v>1.8868433311581612E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>3.8205020129680634E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>2003</v>
       </c>
       <c r="B6" s="7">
-        <v>4.2379498481750488E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C6" s="7">
-        <v>5.0331559032201767E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D6" s="7">
-        <v>4.0077485144138336E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,10 +1653,10 @@
         <v>2004</v>
       </c>
       <c r="B7" s="7">
-        <v>5.2955104038119316E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C7" s="7">
-        <v>0.1048971563577652</v>
+        <v>0.105</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>2005</v>
       </c>
       <c r="B8" s="7">
-        <v>1.8210528418421745E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>3.6503393203020096E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>2006</v>
       </c>
       <c r="B9" s="7">
-        <v>9.1420426964759827E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C9" s="7">
-        <v>0.14857780560851097</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="D9" s="7">
-        <v>3.6777645349502563E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7">
-        <v>5.5505765601992607E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C10" s="7">
-        <v>8.1233259290456772E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D10" s="7">
-        <v>3.3833425492048264E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>2008</v>
       </c>
       <c r="B11" s="7">
-        <v>3.354228101670742E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="C11" s="7">
-        <v>3.1762164086103439E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D11" s="7">
-        <v>3.3954866230487823E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7">
-        <v>0.10228996351361275</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C12" s="7">
-        <v>0.14723215252161026</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D12" s="7">
-        <v>6.8716041743755341E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>2010</v>
       </c>
       <c r="B13" s="7">
-        <v>8.6043214425444603E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C13" s="7">
-        <v>0.10209550522267818</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D13" s="7">
-        <v>7.0535078644752502E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1751,13 @@
         <v>2011</v>
       </c>
       <c r="B14" s="7">
-        <v>7.0295124314725399E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>0.13431767001748085</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,13 +1765,13 @@
         <v>2012</v>
       </c>
       <c r="B15" s="7">
-        <v>0.12033960781991482</v>
+        <v>0.12</v>
       </c>
       <c r="C15" s="7">
-        <v>0.10879646614193916</v>
+        <v>0.109</v>
       </c>
       <c r="D15" s="7">
-        <v>0.12156817130744457</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,13 +1779,13 @@
         <v>2013</v>
       </c>
       <c r="B16" s="7">
-        <v>0.12447763606905937</v>
+        <v>0.124</v>
       </c>
       <c r="C16" s="7">
-        <v>0.11728591099381447</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D16" s="7">
-        <v>0.13521927036345005</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
   </sheetData>
